--- a/src/Sort/Sort.xlsx
+++ b/src/Sort/Sort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Java\Nowy folder\zad_mandelbrot\zad_mandelbrot\src\Sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C566997-CBF4-4E5C-9755-9D8DBCBCA6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8ADF5A-A22F-48A7-8E86-1C3B9F61C9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,6 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Insert_log!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Insert_log!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Insert_log!$E$2:$E$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Insert_log!$H$2:$H$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Insert_log!$K$2:$K$7</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Insert_log!$N$2:$N$7</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Insert_log!$A$1:$B$7</definedName>
     <definedName name="ExternalData_2" localSheetId="0" hidden="1">Insert_log!$D$1:$E$7</definedName>
     <definedName name="ExternalData_3" localSheetId="0" hidden="1">Insert_log!$G$1:$H$7</definedName>
@@ -691,8 +685,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="2000000"/>
-          <c:min val="900"/>
+          <c:max val="10000000"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1600,8 +1594,8 @@
       <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -2006,8 +2000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD5CDAA-5FBE-4F31-AD0C-35AD1E509E8C}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
